--- a/data/trans_camb/P25A_12_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,09</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,76</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,62</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 7,32</t>
+          <t>-0,86; 8,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,32</t>
+          <t>-1,83; 6,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,22; 85,37</t>
+          <t>0,15; 11,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,05; 51,01</t>
+          <t>-7,75; 5,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,87</t>
+          <t>-9,64; 2,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,54</t>
+          <t>-1,88; 14,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,87; 55,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 5,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 3,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 11,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>132,91%</t>
+          <t>107,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>108,03%</t>
+          <t>59,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2519,02%</t>
+          <t>163,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-15,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>388,91%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>-22,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>52,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>688,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>78,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 551,17</t>
+          <t>-28,61; 606,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 507,31</t>
+          <t>-44,15; 525,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1137,17; 7117,7</t>
+          <t>-12,19; 800,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 62,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 46,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>207,63; 660,62</t>
+          <t>-50,03; 69,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 98,9</t>
+          <t>-56,25; 41,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 73,73</t>
+          <t>-15,24; 192,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>393,83; 1033,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 101,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,64; 61,6</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 210,43</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,54</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,21</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,51</t>
+          <t>-1,95; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,7</t>
+          <t>-1,71; 3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,03; 62,64</t>
+          <t>-1,82; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,49; 62,22</t>
+          <t>-6,74; 1,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,37</t>
+          <t>-6,09; 2,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,92</t>
+          <t>-3,58; 5,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,18; 59,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 1,98</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 2,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 3,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1814,95%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>648,26%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>967,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,1%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 149,36</t>
+          <t>-44,39; 226,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 154,16</t>
+          <t>-40,59; 206,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>968,23; 3364,79</t>
+          <t>-42,44; 227,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 31,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 47,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>411,03; 989,14</t>
+          <t>-52,3; 26,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 30,41</t>
+          <t>-48,89; 42,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 45,96</t>
+          <t>-31,16; 84,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>653,27; 1314,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,95; 42,09</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 44,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-26,04; 78,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,13</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,98</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>43,31</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1,49</t>
+          <t>-4,36; 0,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,31</t>
+          <t>-4,78; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 61,95</t>
+          <t>-1,17; 6,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 60,0</t>
+          <t>-1,37; 4,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,17</t>
+          <t>-1,42; 4,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,57</t>
+          <t>-0,66; 6,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,34; 54,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 2,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 1,92</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 5,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,81%</t>
+          <t>-39,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,94%</t>
+          <t>-44,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>557,7%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1066,04%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>64,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>856,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>66,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 66,89</t>
+          <t>-78,05; 59,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,75; -0,28</t>
+          <t>-79,6; 54,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 1666,85</t>
+          <t>-29,66; 300,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 176,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 176,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>545,74; 2080,14</t>
+          <t>-26,14; 158,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 62,75</t>
+          <t>-23,18; 160,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 49,99</t>
+          <t>-11,92; 219,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>398,38; 1443,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,5; 82,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,64; 61,54</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 190,71</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,36</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,05</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,2</t>
+          <t>-2,84; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,89; 61,14</t>
+          <t>-3,03; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,13; 54,17</t>
+          <t>-1,23; 5,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,28</t>
+          <t>1,69; 9,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,58; 54,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 3,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 5,15</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1489,31%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>639,18%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>901,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>58,89%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 83,84</t>
+          <t>-58,69; 137,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 68,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>873,66; 2212,45</t>
+          <t>-58,46; 134,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 34,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 32,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>439,58; 830,87</t>
+          <t>-21,77; 137,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 37,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 27,98</t>
+          <t>19,05; 221,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>699,5; 1168,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-27,04; 93,87</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 138,48</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,3</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 1,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 3,51</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 2,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 2,84</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 6,16</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 2,05</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 1,73</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 4,46</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51,23%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>56,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>54,78%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-28,68; 83,21</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-34,0; 65,04</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 127,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 44,16</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 47,29</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 100,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 44,95</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-16,02; 36,51</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 95,88</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
